--- a/Documents/Deliverable drafts_&_templates/Deliverable 1/SixGuys_Deliverable_1_SprintBackLog_1.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 1/SixGuys_Deliverable_1_SprintBackLog_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E223D6DB-05C5-4D00-ACB5-3BCC2439A3C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED559686-BD6B-46D1-ABFC-F6B5EFB6682F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Sprint Goal</t>
+  </si>
+  <si>
+    <t>take out ones not being worked on!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -359,57 +362,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -474,6 +426,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -491,6 +465,30 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -520,6 +518,11 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,19 +555,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:G25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" headerRowCellStyle="Input">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:G25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Input">
   <autoFilter ref="A1:G25" xr:uid="{B185C55B-4D64-49B0-805A-90960E16F066}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
     <sortCondition ref="D2:D25" customList="H,M,L"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{CAAC7A7E-8EB0-4A54-84FB-94ACF5C45A0F}" name="Sprint Goal" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="Member Name and % completed" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4187F81A-8072-4929-8F3E-AE2C49BCCB7A}" name="Story Type" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{745801D7-6926-4CC7-AB96-9E52607BBB36}" name="Story Points" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E9675B24-95C0-49EA-90BD-B361E90F2CBE}" name="Story Points Completed" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{EE40AAE1-C44B-4B6D-A86A-8FAC1C8465A6}" name="User Story" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{CAAC7A7E-8EB0-4A54-84FB-94ACF5C45A0F}" name="Sprint Goal" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="Member Name and % completed" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4187F81A-8072-4929-8F3E-AE2C49BCCB7A}" name="Story Type" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{745801D7-6926-4CC7-AB96-9E52607BBB36}" name="Story Points" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E9675B24-95C0-49EA-90BD-B361E90F2CBE}" name="Story Points Completed" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EE40AAE1-C44B-4B6D-A86A-8FAC1C8465A6}" name="User Story" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1247,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E4C9C-67CA-4794-82AA-DDD7FE2958B2}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1558,11 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Deliverable drafts_&_templates/Deliverable 1/SixGuys_Deliverable_1_SprintBackLog_1.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 1/SixGuys_Deliverable_1_SprintBackLog_1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED559686-BD6B-46D1-ABFC-F6B5EFB6682F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B1F9F-A0D5-41BC-B87C-0E81262F0252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BB07E46C-EBB9-4E59-B503-407F69F25581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -212,13 +213,49 @@
   </si>
   <si>
     <t>take out ones not being worked on!!!!!!!</t>
+  </si>
+  <si>
+    <t>As a player I want an enemy to go against me so that I feel more challenged.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to shoot food so that I can defeat my enemies.</t>
+  </si>
+  <si>
+    <t>As a player I want configurable controls so that I can better customize my gameplay to my style.</t>
+  </si>
+  <si>
+    <t>As a player I want to have a character that I can control so that I can move through the world.</t>
+  </si>
+  <si>
+    <t>David Sincyr</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Michael Rumohr</t>
+  </si>
+  <si>
+    <t>Ethan Esber</t>
+  </si>
+  <si>
+    <t>Kevin Finley</t>
+  </si>
+  <si>
+    <t>Cooper Dahlberg</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +278,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +317,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -325,12 +393,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,12 +466,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -368,6 +500,51 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -379,6 +556,91 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -509,6 +771,43 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -555,21 +854,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:G25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Input">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA8E1A6C-5630-43BD-9E96-93A782CEED7D}" name="Table42" displayName="Table42" ref="A1:G25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Input">
   <autoFilter ref="A1:G25" xr:uid="{B185C55B-4D64-49B0-805A-90960E16F066}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
     <sortCondition ref="D2:D25" customList="H,M,L"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{CAAC7A7E-8EB0-4A54-84FB-94ACF5C45A0F}" name="Sprint Goal" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="Member Name and % completed" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4187F81A-8072-4929-8F3E-AE2C49BCCB7A}" name="Story Type" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{745801D7-6926-4CC7-AB96-9E52607BBB36}" name="Story Points" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E9675B24-95C0-49EA-90BD-B361E90F2CBE}" name="Story Points Completed" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EE40AAE1-C44B-4B6D-A86A-8FAC1C8465A6}" name="User Story" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1BB0B59B-6F4C-4C5C-A33D-8A9AF0EF7A2C}" name="Sprint Number" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AF7B2F20-C074-4EE8-84A1-D38EA34B0BB8}" name="Sprint Goal" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F05E8674-6512-4441-8F35-96B41D778368}" name="Member Name and % completed" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D06C047E-1B11-409A-80CF-3C145EA22203}" name="Story Type" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9592A04A-077B-448B-BE7C-D9D200851C00}" name="Story Points" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{987AE5D3-C839-493F-BC8E-C0DCC2114B94}" name="Story Points Completed" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A925394A-FEE7-461D-980B-0EBFAE872B97}" name="User Story" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8479C2CE-F365-4119-A226-F6FAFAD8A4CF}" name="Table4" displayName="Table4" ref="A1:G25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Input">
+  <autoFilter ref="A1:G25" xr:uid="{B185C55B-4D64-49B0-805A-90960E16F066}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+    <sortCondition ref="D2:D25" customList="H,M,L"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{1FDADD91-D621-4F44-B591-C349E89B10F7}" name="Sprint Number" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CAAC7A7E-8EB0-4A54-84FB-94ACF5C45A0F}" name="Sprint Goal" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F07D2BD0-D352-48DB-BF4F-9202E12625B1}" name="Member Name and % completed" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4187F81A-8072-4929-8F3E-AE2C49BCCB7A}" name="Story Type" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{745801D7-6926-4CC7-AB96-9E52607BBB36}" name="Story Points" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E9675B24-95C0-49EA-90BD-B361E90F2CBE}" name="Story Points Completed" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{EE40AAE1-C44B-4B6D-A86A-8FAC1C8465A6}" name="User Story" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1249,10 +1567,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E4C9C-67CA-4794-82AA-DDD7FE2958B2}">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF39B414-CB74-41C1-810C-8DFC1625F1B9}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1292,68 +1610,92 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" s="8"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
+      <c r="G4" t="s">
+        <v>60</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
+      <c r="G5" t="s">
+        <v>61</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
+      <c r="G6" t="s">
+        <v>62</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
+      <c r="G7" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1363,9 +1705,7 @@
       <c r="C8" s="6"/>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,9 +1714,7 @@
       <c r="C9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1385,9 +1723,7 @@
       <c r="C10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,9 +1732,7 @@
       <c r="C11" s="6"/>
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,9 +1741,7 @@
       <c r="C12" s="6"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,9 +1750,7 @@
       <c r="C13" s="6"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,9 +1759,7 @@
       <c r="C14" s="6"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,9 +1768,7 @@
       <c r="C15" s="6"/>
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,9 +1777,7 @@
       <c r="C16" s="6"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,9 +1786,7 @@
       <c r="C17" s="6"/>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1473,9 +1795,7 @@
       <c r="C18" s="6"/>
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,9 +1804,7 @@
       <c r="C19" s="6"/>
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,9 +1813,7 @@
       <c r="C20" s="6"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,9 +1822,7 @@
       <c r="C21" s="6"/>
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,9 +1831,7 @@
       <c r="C22" s="6"/>
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,9 +1840,7 @@
       <c r="C23" s="6"/>
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,9 +1849,7 @@
       <c r="C24" s="6"/>
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,17 +1858,621 @@
       <c r="C25" s="6"/>
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G25" s="12"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="13" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E4C9C-67CA-4794-82AA-DDD7FE2958B2}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="174.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="18">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="18">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="18">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="14"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
